--- a/src/test/resources/013 Many-teams-many-projects_team1extracted.xlsx
+++ b/src/test/resources/013 Many-teams-many-projects_team1extracted.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="19320" windowHeight="8280" tabRatio="429"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -96,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,27 +147,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -188,6 +173,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,31 +851,34 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -907,222 +898,207 @@
       <c r="H45" t="s">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="1">
+      <c r="A46" s="1">
         <v>42461</v>
       </c>
+      <c r="B46">
+        <v>3.34</v>
+      </c>
       <c r="C46">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>3.3332999999999999</v>
       </c>
       <c r="D46">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3.3332999999999999</v>
       </c>
       <c r="G46">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
+      <c r="A47" s="1">
         <v>42491</v>
       </c>
+      <c r="B47">
+        <v>3.34</v>
+      </c>
       <c r="C47">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>3.3332999999999999</v>
       </c>
       <c r="D47">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3.3332999999999999</v>
       </c>
       <c r="G47">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
+      <c r="A48" s="1">
         <v>42522</v>
       </c>
+      <c r="B48">
+        <v>3.34</v>
+      </c>
       <c r="C48">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>3.3332999999999999</v>
       </c>
       <c r="D48">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3.3332999999999999</v>
       </c>
       <c r="G48">
-        <f>10/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="1">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>42552</v>
       </c>
+      <c r="B49">
+        <v>2.34</v>
+      </c>
       <c r="C49">
-        <f>7/3</f>
-        <v>2.3333333333333335</v>
+        <v>2.3332999999999999</v>
       </c>
       <c r="D49">
-        <f>7/3</f>
-        <v>2.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.3332999999999999</v>
       </c>
       <c r="G49">
-        <f>7/3</f>
-        <v>2.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="1">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>42583</v>
       </c>
+      <c r="B50">
+        <v>1.67</v>
+      </c>
       <c r="C50">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
+        <v>1.6666000000000001</v>
       </c>
       <c r="D50">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G50">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>42614</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2.5</v>
       </c>
       <c r="C51" s="4">
         <v>2.5</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>2.5</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>2.5</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B52" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
-        <v>42644</v>
       </c>
       <c r="C52" s="4">
         <v>2.5</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>2.5</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
       </c>
       <c r="G52">
         <v>2.5</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B53" s="4">
         <v>2.5</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
-        <v>42675</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>2.5</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
       </c>
       <c r="G53">
         <v>2.5</v>
@@ -1130,25 +1106,25 @@
       <c r="H53">
         <v>2.5</v>
       </c>
-      <c r="I53">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B54" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
-        <v>42705</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>2.5</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
       </c>
       <c r="G54">
         <v>2.5</v>
@@ -1156,14 +1132,14 @@
       <c r="H54">
         <v>2.5</v>
       </c>
-      <c r="I54">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="1">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>42736</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>0</v>
       </c>
@@ -1182,14 +1158,14 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>42767</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>0</v>
       </c>
@@ -1208,21 +1184,21 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>42795</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
@@ -1234,14 +1210,14 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>42826</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>0</v>
       </c>
@@ -1260,21 +1236,21 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="1">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>42856</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
@@ -1286,21 +1262,21 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>42887</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
@@ -1312,23 +1288,23 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>42917</v>
       </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="4">
         <v>7</v>
       </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
       <c r="F61">
         <v>0</v>
       </c>
@@ -1338,129 +1314,129 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="1">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>42948</v>
       </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>8</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
-        <v>42979</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="1">
-        <v>43009</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="1">
-        <v>43040</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="1">
-        <v>43070</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
       <c r="F66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -1468,14 +1444,14 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="1">
+      <c r="A67" s="1">
         <v>43101</v>
       </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
       <c r="C67">
         <v>0</v>
       </c>
@@ -1494,14 +1470,14 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="1">
+      <c r="A68" s="1">
         <v>43132</v>
       </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68">
         <v>0</v>
       </c>
@@ -1520,14 +1496,14 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="1">
+      <c r="A69" s="1">
         <v>43160</v>
       </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
       <c r="C69" s="3">
         <v>0</v>
       </c>
@@ -1543,10 +1519,7 @@
       <c r="G69" s="3">
         <v>0</v>
       </c>
-      <c r="H69" s="3">
-        <v>0</v>
-      </c>
-      <c r="I69">
+      <c r="H69">
         <v>0</v>
       </c>
     </row>
